--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/ValueSet/BiologicalSampleNature</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/BiologicalSampleNature</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>Xenograft</t>
+  </si>
+  <si>
+    <t>C0007806</t>
+  </si>
+  <si>
+    <t>Cerebrospinal FLuid</t>
+  </si>
+  <si>
+    <t>C0225778</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pleural Fluid</t>
   </si>
   <si>
     <t/>
@@ -454,7 +466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,15 +609,31 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Pleural Fluid</t>
+  </si>
+  <si>
+    <t>C2827484</t>
+  </si>
+  <si>
+    <t>Fixed Slide</t>
   </si>
   <si>
     <t/>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,15 +631,23 @@
         <v>60</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-BiologicalSampleNature.xlsx
+++ b/output/ValueSet-BiologicalSampleNature.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
